--- a/script/stats.xlsx
+++ b/script/stats.xlsx
@@ -19,15 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Nodes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Interval</t>
+    <t>Interval</t>
   </si>
   <si>
-    <t xml:space="preserve"> EverageDelay</t>
+    <t>AverageDelay</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -466,6 +466,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -511,8 +646,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -586,6 +730,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Edge</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Nodes only</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -641,7 +815,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>stats!$D$1:$D$9</c:f>
+              <c:f>stats!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -677,7 +851,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>stats!$F$1:$F$9</c:f>
+              <c:f>stats!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -738,7 +912,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>stats!$F$10:$F$18</c:f>
+              <c:f>stats!$C$11:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -799,7 +973,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>stats!$F$19:$F$27</c:f>
+              <c:f>stats!$C$20:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1714,15 +1888,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2048,554 +2222,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C1" sqref="C1:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="C2" s="6">
+        <v>139.444301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>111.052267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>193.29802100000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
+        <v>286.28834799999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6">
+        <v>361.36970000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>437.61233299999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30</v>
+      </c>
+      <c r="C8" s="6">
+        <v>512.48737600000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>35</v>
+      </c>
+      <c r="C9" s="6">
+        <v>590.64337599999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="8">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9">
+        <v>662.428089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>139.444301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C11" s="4">
+        <v>846.200245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6">
+        <v>943.258332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6">
+        <v>833.57033799999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6">
+        <v>779.74161900000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6">
+        <v>993.75994300000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1082.321107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1308.5024719999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1499.4943450000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <v>7</v>
+      </c>
+      <c r="B19" s="8">
+        <v>40</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1606.081455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="C20" s="4">
+        <v>3560.5231279999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>111.052267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3">
+      <c r="C21" s="6">
+        <v>3449.513993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>193.29802100000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
+      <c r="C22" s="6">
+        <v>4165.2297259999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>286.28834799999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="B23" s="1">
+        <v>15</v>
+      </c>
+      <c r="C23" s="6">
+        <v>4002.3458179999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+      <c r="B24" s="1">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>361.36970000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6">
+      <c r="C24" s="6">
+        <v>3584.9119179999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>437.61233299999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="C25" s="6">
+        <v>2623.9934960000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>512.48737600000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="C26" s="6">
+        <v>3353.4092540000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
+        <v>15</v>
+      </c>
+      <c r="B27" s="1">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>590.64337599999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="C27" s="6">
+        <v>3976.9937049999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <v>15</v>
+      </c>
+      <c r="B28" s="8">
         <v>40</v>
       </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>662.428089</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>846.200245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>943.258332</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>833.57033799999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>779.74161900000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>993.75994300000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1082.321107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>30</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1308.5024719999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1499.4943450000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1606.081455</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>3560.5231279999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>3449.513993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>15</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>4165.2297259999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>4002.3458179999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>15</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>3584.9119179999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
-        <v>15</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>2623.9934960000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>30</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>3353.4092540000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>3976.9937049999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>40</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27">
+      <c r="C28" s="9">
         <v>1723.175962</v>
       </c>
     </row>
